--- a/experiment result/64_0.0_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.0_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07963099937482256</v>
+        <v>0.004642934176243818</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07163954558807477</v>
+        <v>0.003525227744540478</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08248735754960879</v>
+        <v>0.01791065692331352</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07213423433330572</v>
+        <v>0.02665094215450386</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04588450642286931</v>
+        <v>0.01835067427366157</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03174828835679259</v>
+        <v>0.006431106484998206</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05090321259909197</v>
+        <v>0.01510773933022115</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08019760572988607</v>
+        <v>0.01477605797337756</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05936753718544452</v>
+        <v>0.005282327912690083</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2127331873168144</v>
+        <v>0.01134243021824578</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.143074408985381</v>
+        <v>0.0193299606149992</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.229686449534339</v>
+        <v>0.01798420233163507</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02361450435425917</v>
+        <v>0.01591176907346873</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06983226384511344</v>
+        <v>0.01459709509888678</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1677805044131194</v>
+        <v>0.0144966077117667</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06437579560568743</v>
+        <v>0.02127733559115864</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1681951095738389</v>
+        <v>0.01605423277552297</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01543964777076822</v>
+        <v>0.004844936083323324</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1707316111604028</v>
+        <v>0.01331033311289622</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05939915459978797</v>
+        <v>0.01675619668741333</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03428172166353028</v>
+        <v>0.00113206135002911</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05640572608804176</v>
+        <v>0.004511113782555196</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2032332524525055</v>
+        <v>0.01086986713699961</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04688950251095293</v>
+        <v>0.006691650097193969</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0200430767682574</v>
+        <v>0.001064637373720085</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06352843075638513</v>
+        <v>0.01950034026592278</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0554066724521832</v>
+        <v>0.01707522072593018</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1001010157505308</v>
+        <v>0.01656484176079566</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07378892031472818</v>
+        <v>0.01009808803134037</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.234485665651798</v>
+        <v>0.01855987327443897</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007738140163605092</v>
+        <v>0.001530894931932072</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05840196658066465</v>
+        <v>0.0153551891654356</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09358551860389618</v>
+        <v>0.0213719452753695</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04236206598670367</v>
+        <v>0.01189598762842345</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07970554495073509</v>
+        <v>0.01477605797337756</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.104608082446022</v>
+        <v>0.01592888380231781</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04286574417559934</v>
+        <v>0.007283465486306786</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06983226384511344</v>
+        <v>0.0137529431229892</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04990072504119918</v>
+        <v>0.01442839790070105</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.176425225012516</v>
+        <v>0.006436813598058617</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2783200363576465</v>
+        <v>0.02085872320504552</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1704250847535316</v>
+        <v>0.00165611516662636</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08820724306112797</v>
+        <v>0.01638160347952164</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0418582301298669</v>
+        <v>0.0103797083183983</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0893521656189042</v>
+        <v>0.02197538884384089</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1203601501804591</v>
+        <v>0.02162861358234498</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1162055185026787</v>
+        <v>0.02217627314259494</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02629065049761274</v>
+        <v>0.00971952110677172</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04286574417559934</v>
+        <v>0.0002959353599333803</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0169755762659669</v>
+        <v>0.01618329130450811</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1070285419340092</v>
+        <v>0.02653650686030852</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116192535312361</v>
+        <v>0.02802660720079678</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001550571176865406</v>
+        <v>0.002690216616480643</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009281363949625705</v>
+        <v>0.003995301207218124</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1604977264049785</v>
+        <v>0.02122372941639592</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0683459841464362</v>
+        <v>0.03192633842780117</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0663621232175786</v>
+        <v>0.01987854371676498</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06387882774428334</v>
+        <v>0.02703987264556113</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07340902118591854</v>
+        <v>0.02616649152202422</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06036491779301999</v>
+        <v>0.02559954585949541</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02310478233642451</v>
+        <v>0.005205311068239527</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0829786865235333</v>
+        <v>0.013432988403202</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1638964770171102</v>
+        <v>0.01413884551815229</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.083146777229475</v>
+        <v>0.02910768030365697</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1435814361106948</v>
+        <v>0.03003252768539004</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1676673298958893</v>
+        <v>0.03090543759319228</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1028324236848349</v>
+        <v>0.02293554661438747</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04085008511614575</v>
+        <v>0.01972866181744152</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01390226436173515</v>
+        <v>0.008490408921442717</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05772566325545764</v>
+        <v>0.01720567351601994</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.134863858655735</v>
+        <v>0.01300161818178216</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03579987474972988</v>
+        <v>0.01567068059952178</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05939915459978797</v>
+        <v>0.03705215528045224</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04538177268927749</v>
+        <v>0.01522388850347095</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1131471879358111</v>
+        <v>0.02666305250572103</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1740994303710169</v>
+        <v>0.02166060810727419</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01287653278239191</v>
+        <v>0.01944510942668535</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2362242507049314</v>
+        <v>0.02913830208314213</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1403816773984554</v>
+        <v>0.0268524607581117</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1615562662288512</v>
+        <v>0.03594849695651354</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1468535300604839</v>
+        <v>0.02780239681974046</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02208485668130071</v>
+        <v>0.03716668057791028</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1390797471571646</v>
+        <v>0.01144677369596376</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2031423029023145</v>
+        <v>0.02652129825832496</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2269768900633026</v>
+        <v>0.02933101749380514</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.04939924645468634</v>
+        <v>0.02474379874278805</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.104951584343407</v>
+        <v>0.02859371877328401</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07707269305986703</v>
+        <v>0.0316070402844216</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.09862139149488069</v>
+        <v>0.02565184333673383</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0179987213302159</v>
+        <v>0.03013809294667234</v>
       </c>
     </row>
   </sheetData>
